--- a/data/input/employee_absence_data_23.xlsx
+++ b/data/input/employee_absence_data_23.xlsx
@@ -464,69 +464,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45817</v>
+        <v>4668</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>José Miguel Gomes</t>
+          <t>Hellena Carvalho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>6415.21</v>
+        <v>4366.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>63089</v>
+        <v>30912</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bruno Oliveira</t>
+          <t>Maria Cecília Carvalho</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45103</v>
+        <v>45099</v>
       </c>
       <c r="G3" t="n">
-        <v>6082.57</v>
+        <v>5952.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>63122</v>
+        <v>69195</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Benicio Marques</t>
+          <t>Luísa da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -536,118 +536,118 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45091</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>3513.8</v>
+        <v>2590.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>38835</v>
+        <v>57730</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gustavo da Cruz</t>
+          <t>Dra. Ísis Pereira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45081</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>11414.66</v>
+        <v>3936.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>71627</v>
+        <v>65903</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isabella Carvalho</t>
+          <t>Ravi Pastor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45102</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>9320.059999999999</v>
+        <v>6122.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10072</v>
+        <v>13756</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Vitória Viana</t>
+          <t>Rafael Lima</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45079</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>10195.16</v>
+        <v>2334.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>46407</v>
+        <v>24931</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arthur Miguel Barbosa</t>
+          <t>Liam Farias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,27 +656,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45081</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>11410.08</v>
+        <v>8782.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1641</v>
+        <v>27939</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bruno Vargas</t>
+          <t>Sra. Alícia Viana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -685,71 +685,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45092</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>10560.86</v>
+        <v>2749.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19970</v>
+        <v>5464</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Thomas Casa Grande</t>
+          <t>Sra. Ana Cecília Pimenta</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45099</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>5072.14</v>
+        <v>9549.940000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54691</v>
+        <v>62744</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ravi Lucca Jesus</t>
+          <t>Ana Lívia Aparecida</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>11863.57</v>
+        <v>5539.58</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_23.xlsx
+++ b/data/input/employee_absence_data_23.xlsx
@@ -464,127 +464,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4668</v>
+        <v>8754</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hellena Carvalho</t>
+          <t>Bryan Mendes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45086</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>4366.22</v>
+        <v>7738.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30912</v>
+        <v>68229</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Cecília Carvalho</t>
+          <t>Arthur Gabriel Viana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45099</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>5952.12</v>
+        <v>8289.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69195</v>
+        <v>53883</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luísa da Cruz</t>
+          <t>Pedro Nascimento</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45081</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>2590.57</v>
+        <v>2886.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>57730</v>
+        <v>81817</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dra. Ísis Pereira</t>
+          <t>Sr. Joaquim Moura</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>3936.32</v>
+        <v>8046.97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65903</v>
+        <v>2099</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ravi Pastor</t>
+          <t>Sr. André Oliveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -598,27 +598,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45086</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>6122.55</v>
+        <v>9205.940000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13756</v>
+        <v>43707</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rafael Lima</t>
+          <t>Bento Guerra</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,85 +627,85 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>2334.19</v>
+        <v>7798.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24931</v>
+        <v>51070</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liam Farias</t>
+          <t>Helena Cardoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45087</v>
+        <v>45091</v>
       </c>
       <c r="G8" t="n">
-        <v>8782.02</v>
+        <v>2734.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27939</v>
+        <v>94006</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Alícia Viana</t>
+          <t>Alexandre Costela</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45088</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>2749.05</v>
+        <v>2094.35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5464</v>
+        <v>90732</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Ana Cecília Pimenta</t>
+          <t>Murilo Siqueira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,42 +714,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45094</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>9549.940000000001</v>
+        <v>2393.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>62744</v>
+        <v>68124</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Lívia Aparecida</t>
+          <t>Vicente Macedo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45086</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>5539.58</v>
+        <v>5494.27</v>
       </c>
     </row>
   </sheetData>
